--- a/Documentacion/Entrega 1/Tabla de Decisiones Entrega 1.xlsx
+++ b/Documentacion/Entrega 1/Tabla de Decisiones Entrega 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxFernandez\eclipse-workspace\G6_S_G_E\Documentacion\Entrega 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2376" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -366,6 +366,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,19 +687,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="5" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="5" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>43187</v>
       </c>
@@ -730,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>43204</v>
       </c>
@@ -747,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>43204</v>
       </c>
@@ -764,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>43208</v>
       </c>
@@ -781,7 +784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43208</v>
       </c>
@@ -798,7 +801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43214</v>
       </c>
@@ -815,7 +818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>43208</v>
       </c>
@@ -832,7 +835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
@@ -849,8 +852,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>43236</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>59</v>
       </c>
@@ -864,8 +869,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>43238</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>53</v>
       </c>
@@ -879,8 +886,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>43232</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -892,8 +901,10 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>43232</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
@@ -907,8 +918,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>43236</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
@@ -922,8 +935,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>43234</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>55</v>
       </c>
@@ -937,8 +952,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>43232</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>60</v>
       </c>
@@ -952,21 +969,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
